--- a/Turma Intensivo - 439 - Noite Julho 2017/Aula 3/Compra Carro Se E Ou.xlsx
+++ b/Turma Intensivo - 439 - Noite Julho 2017/Aula 3/Compra Carro Se E Ou.xlsx
@@ -113,7 +113,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -195,16 +195,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Ênfase5" xfId="3" builtinId="47"/>
@@ -546,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,62 +557,63 @@
     <col min="1" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
     <col min="6" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -622,21 +623,29 @@
       <c r="C4">
         <v>2005</v>
       </c>
+      <c r="D4" t="str">
+        <f>IF(OR(B4="bom",C4&gt;1998),"Comprar","Não comprar")</f>
+        <v>Comprar</v>
+      </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>900</v>
       </c>
       <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="b">
-        <f>AND(G4&gt;900,H4="ok")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" t="str">
+        <f>IF(AND(G4&gt;900,H4="ok"),"Concede","Negado")</f>
+        <v>Negado</v>
+      </c>
+      <c r="J4" t="str">
+        <f>IF(AND(D4="comprar",I4="concede"),F4&amp;" Conseguiu Comprar","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -646,21 +655,29 @@
       <c r="C5">
         <v>1965</v>
       </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D10" si="0">IF(OR(B5="bom",C5&gt;1998),"Comprar","Não comprar")</f>
+        <v>Não comprar</v>
+      </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>700</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" t="b">
-        <f t="shared" ref="I5:I10" si="0">AND(G5&gt;900,H5="ok")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:I10" si="1">IF(AND(G5&gt;900,H5="ok"),"Concede","Negado")</f>
+        <v>Negado</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J10" si="2">IF(AND(D5="comprar",I5="concede"),F5&amp;" Conseguiu Comprar","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -670,21 +687,29 @@
       <c r="C6">
         <v>1999</v>
       </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Comprar</v>
+      </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>1200</v>
       </c>
       <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="I6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>Concede</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="2"/>
+        <v>Beltrano Conseguiu Comprar</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -694,21 +719,29 @@
       <c r="C7">
         <v>1973</v>
       </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Comprar</v>
+      </c>
       <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>2500</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
       </c>
-      <c r="I7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>Negado</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -718,21 +751,29 @@
       <c r="C8">
         <v>1975</v>
       </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Não comprar</v>
+      </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>1750</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
       </c>
-      <c r="I8" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>Concede</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -742,21 +783,29 @@
       <c r="C9">
         <v>1993</v>
       </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Comprar</v>
+      </c>
       <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>800</v>
       </c>
       <c r="H9" t="s">
         <v>28</v>
       </c>
-      <c r="I9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>Negado</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -766,18 +815,26 @@
       <c r="C10">
         <v>1980</v>
       </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Não comprar</v>
+      </c>
       <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <v>1000</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
       </c>
-      <c r="I10" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>Negado</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
   </sheetData>
